--- a/biology/Médecine/Georg_Erhard_Hamberger/Georg_Erhard_Hamberger.xlsx
+++ b/biology/Médecine/Georg_Erhard_Hamberger/Georg_Erhard_Hamberger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Erhard Hamberger, né le 21 décembre 1697 à Iéna où il est mort le 22 juillet 1755, est un médecin, physicien et botaniste allemand. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du mathématicien Georg Albrecht Hamberger (de), il est élève en anatomie de Johann Adrian Slevogt (de) dont il suit secrètement les cours. À la mort de son père en 1716, il décide de se consacrer entièrement à la médecine.
 Élève de Johann Adolph Wedel (de), il obtient une maîtrise de philosophie en 1717 et est diplômé docteur en médecine en 1721 de l'université d'Iéna. 
-Il officie dès 1724 dans le district de Weimar et devient en 1726 professeur de mathématiques et de physique à Iéna. Il est élu à l'Académie Léopoldine le 18 mai 1731. En 1744, il devint professeur titulaire de botanique, d'anatomie et de chirurgie et en 1748, professeur de chimie et de médecine pratique[1],[2].
-Dans De respirationis mechanismo, il étudie le phénomène de la respiration de manière totalement mécanique, ce qui lui attire une polémique avec Albrecht von Haller[3].
+Il officie dès 1724 dans le district de Weimar et devient en 1726 professeur de mathématiques et de physique à Iéna. Il est élu à l'Académie Léopoldine le 18 mai 1731. En 1744, il devint professeur titulaire de botanique, d'anatomie et de chirurgie et en 1748, professeur de chimie et de médecine pratique,.
+Dans De respirationis mechanismo, il étudie le phénomène de la respiration de manière totalement mécanique, ce qui lui attire une polémique avec Albrecht von Haller.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elementa physices, Iéna, 1727 et 1761
 De respirationis mechanismo, 1727 et 1747
